--- a/biology/Botanique/Crotalaria_barkae/Crotalaria_barkae.xlsx
+++ b/biology/Botanique/Crotalaria_barkae/Crotalaria_barkae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalaria barkae est une espèce de plantes de la famille des Fabaceae et du genre Crotalaria, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalaria barkae est une espèce de plantes de la famille des Fabaceae et du genre Crotalaria, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe annuelle ou vivace de courte durée. La tige principale, érigée, entourée de branches inférieures décombantes[3], atteint 50 à 100 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe annuelle ou vivace de courte durée. La tige principale, érigée, entourée de branches inférieures décombantes, atteint 50 à 100 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans de nombreux pays africains, de l'ouest à l'est, ainsi qu'au sud[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans de nombreux pays africains, de l'ouest à l'est, ainsi qu'au sud.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est répandue dans les savanes sahéliennes et zambéziennes, avec des variantes selon les sous-espèces, dans des zones sèches, rocheuses, le long des chemins, au bord des cours d'eau, sur des terres cultivées, à une altitude variant entre 900 et2 600 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est répandue dans les savanes sahéliennes et zambéziennes, avec des variantes selon les sous-espèces, dans des zones sèches, rocheuses, le long des chemins, au bord des cours d'eau, sur des terres cultivées, à une altitude variant entre 900 et2 600 m.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est consommée par le bétail en Afrique de l'Ouest[2], mais plusieurs auteurs la décrivent comme toxique en Afrique de l'Est[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est consommée par le bétail en Afrique de l'Ouest, mais plusieurs auteurs la décrivent comme toxique en Afrique de l'Est.
 </t>
         </is>
       </c>
@@ -635,17 +655,19 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 juin 2020)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 juin 2020) :
 sous-espèce Crotalaria barkae subsp. barkae
 sous-espèce Crotalaria barkae subsp. cordisepala
 sous-espèce Crotalaria barkae subsp. teitensis
 sous-espèce Crotalaria barkae subsp. zimmermannii
-Selon The Plant List            (17 juin 2020)[1] :
+Selon The Plant List            (17 juin 2020) :
 sous-espèce Crotalaria barkae subsp. teitensis (Sacleux) Polhill
 sous-espèce Crotalaria barkae subsp. zimmermannii (Baker f.) Polhill
-Selon Tropicos                                           (17 juin 2020)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Crotalaria barkae subsp. barkae
 sous-espèce Crotalaria barkae subsp. cordisepala Polhill
 sous-espèce Crotalaria barkae subsp. teitensis (Sacleux) Polhill
